--- a/src/preprocessing/term-document matrix/FOMC2_dictionary_meeting_onlyTF.xlsx
+++ b/src/preprocessing/term-document matrix/FOMC2_dictionary_meeting_onlyTF.xlsx
@@ -33,43 +33,139 @@
     <t>id</t>
   </si>
   <si>
+    <t>step</t>
+  </si>
+  <si>
     <t>favor</t>
   </si>
   <si>
+    <t>feel</t>
+  </si>
+  <si>
     <t>rather</t>
   </si>
   <si>
-    <t>particular</t>
+    <t>polici</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>slight</t>
+  </si>
+  <si>
+    <t>period</t>
   </si>
   <si>
     <t>rate</t>
   </si>
   <si>
+    <t>governor</t>
+  </si>
+  <si>
+    <t>spade</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
     <t>last</t>
   </si>
   <si>
     <t>term</t>
   </si>
   <si>
+    <t>mayb</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>posit</t>
   </si>
   <si>
-    <t>believ</t>
+    <t>someth</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>degre</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>trade</t>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
+    <t>issu</t>
+  </si>
+  <si>
+    <t>maintain</t>
+  </si>
+  <si>
     <t>look</t>
   </si>
   <si>
-    <t>busi</t>
-  </si>
-  <si>
-    <t>rise</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>discuss</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>toward</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>prefer</t>
+  </si>
+  <si>
+    <t>sensit</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>statement</t>
   </si>
   <si>
     <t>call</t>
@@ -78,34 +174,127 @@
     <t>rang</t>
   </si>
   <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>intern</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>monetari</t>
+  </si>
+  <si>
+    <t>committe</t>
+  </si>
+  <si>
+    <t>sentenc</t>
+  </si>
+  <si>
+    <t>borrow</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>need</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>comment</t>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>exist</t>
   </si>
   <si>
     <t>clear</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>quit</t>
+    <t>know</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>agre</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>appropri</t>
+  </si>
+  <si>
+    <t>indic</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>longer</t>
+  </si>
+  <si>
+    <t>realli</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>situat</t>
+  </si>
+  <si>
+    <t>reserv</t>
+  </si>
+  <si>
+    <t>eas</t>
+  </si>
+  <si>
     <t>seem</t>
   </si>
   <si>
+    <t>side</t>
+  </si>
+  <si>
     <t>continu</t>
   </si>
   <si>
-    <t>inflat</t>
+    <t>impli</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>anyth</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>certain</t>
   </si>
   <si>
     <t>mr</t>
@@ -114,34 +303,139 @@
     <t>week</t>
   </si>
   <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>associ</t>
+  </si>
+  <si>
+    <t>alreadi</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
     <t>suggest</t>
   </si>
   <si>
+    <t>reduct</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
+    <t>presid</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>tighten</t>
   </si>
   <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
     <t>economi</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>start</t>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>chairman</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>condit</t>
+  </si>
+  <si>
+    <t>probabl</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>financi</t>
+  </si>
+  <si>
+    <t>pressur</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
   <si>
     <t>littl</t>
   </si>
   <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>convey</t>
+  </si>
+  <si>
     <t>around</t>
   </si>
   <si>
     <t>come</t>
   </si>
   <si>
-    <t>quarter</t>
+    <t>languag</t>
+  </si>
+  <si>
+    <t>view</t>
   </si>
   <si>
     <t>might</t>
@@ -150,7 +444,7 @@
     <t>uncertainti</t>
   </si>
   <si>
-    <t>price</t>
+    <t>think</t>
   </si>
   <si>
     <t>direct</t>
@@ -159,328 +453,34 @@
     <t>chang</t>
   </si>
   <si>
+    <t>meet</t>
+  </si>
+  <si>
     <t>let</t>
   </si>
   <si>
-    <t>import</t>
-  </si>
-  <si>
     <t>fact</t>
   </si>
   <si>
-    <t>basi</t>
-  </si>
-  <si>
-    <t>monetari_polici</t>
-  </si>
-  <si>
-    <t>today</t>
+    <t>relat</t>
+  </si>
+  <si>
+    <t>oper</t>
+  </si>
+  <si>
+    <t>flexibl</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>expect</t>
   </si>
   <si>
     <t>differ</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>higher</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>inde</t>
-  </si>
-  <si>
-    <t>increas</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>peopl</t>
-  </si>
-  <si>
-    <t>situat</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>tri</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>probabl</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>possibl</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>given</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>evid</t>
-  </si>
-  <si>
-    <t>econom</t>
-  </si>
-  <si>
-    <t>meet</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>polici</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>issu</t>
-  </si>
-  <si>
-    <t>toward</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>signific</t>
-  </si>
-  <si>
-    <t>prefer</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>committe</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>realli</t>
-  </si>
-  <si>
-    <t>eas</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>certain</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>happen</t>
-  </si>
-  <si>
-    <t>measur</t>
-  </si>
-  <si>
-    <t>talk</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>rais</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>chairman</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>forecast</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>futur</t>
-  </si>
-  <si>
-    <t>governor</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>someth</t>
-  </si>
-  <si>
-    <t>discuss</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>statement</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>declin</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>agre</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>appropri</t>
-  </si>
-  <si>
-    <t>indic</t>
-  </si>
-  <si>
-    <t>reserv</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>presid</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>consist</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>fund_rate</t>
-  </si>
-  <si>
-    <t>languag</t>
-  </si>
-  <si>
-    <t>sens</t>
-  </si>
-  <si>
-    <t>relat</t>
-  </si>
-  <si>
-    <t>expect</t>
+    <t>feder</t>
   </si>
 </sst>
 </file>
